--- a/data/raw_data/04-2024_rental_listings.xlsx
+++ b/data/raw_data/04-2024_rental_listings.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="O2" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="O3" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="O4" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="O5" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="O6" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="O7" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="O8" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="O9" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="O10" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="O11" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="O12" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="O13" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="O14" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="O15" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="O16" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="O17" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="O18" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="O19" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         </is>
       </c>
       <c r="O20" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="O21" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="O22" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="O23" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="O24" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="O25" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         </is>
       </c>
       <c r="O26" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="O27" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="O28" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         </is>
       </c>
       <c r="O29" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="O30" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="O31" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="O32" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="O33" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="O34" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         </is>
       </c>
       <c r="O35" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="O36" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="O37" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="O38" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="O39" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         </is>
       </c>
       <c r="O40" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         </is>
       </c>
       <c r="O41" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         </is>
       </c>
       <c r="O42" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="O43" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="O44" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         </is>
       </c>
       <c r="O45" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         </is>
       </c>
       <c r="O46" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         </is>
       </c>
       <c r="O47" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="O48" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         </is>
       </c>
       <c r="O49" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="O50" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         </is>
       </c>
       <c r="O51" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         </is>
       </c>
       <c r="O52" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="O53" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="O54" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         </is>
       </c>
       <c r="O55" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         </is>
       </c>
       <c r="O56" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         </is>
       </c>
       <c r="O57" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="O58" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         </is>
       </c>
       <c r="O59" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         </is>
       </c>
       <c r="O60" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         </is>
       </c>
       <c r="O61" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         </is>
       </c>
       <c r="O62" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="O63" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="O64" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         </is>
       </c>
       <c r="O65" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         </is>
       </c>
       <c r="O66" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         </is>
       </c>
       <c r="O67" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="O68" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         </is>
       </c>
       <c r="O69" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         </is>
       </c>
       <c r="O70" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         </is>
       </c>
       <c r="O71" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         </is>
       </c>
       <c r="O72" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="O73" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         </is>
       </c>
       <c r="O74" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         </is>
       </c>
       <c r="O75" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         </is>
       </c>
       <c r="O76" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         </is>
       </c>
       <c r="O77" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="O78" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         </is>
       </c>
       <c r="O79" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         </is>
       </c>
       <c r="O80" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="O81" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         </is>
       </c>
       <c r="O82" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="O83" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         </is>
       </c>
       <c r="O84" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         </is>
       </c>
       <c r="O85" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         </is>
       </c>
       <c r="O86" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         </is>
       </c>
       <c r="O87" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="O88" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         </is>
       </c>
       <c r="O89" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         </is>
       </c>
       <c r="O90" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         </is>
       </c>
       <c r="O91" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         </is>
       </c>
       <c r="O92" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="O93" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P93" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         </is>
       </c>
       <c r="O94" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         </is>
       </c>
       <c r="O95" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         </is>
       </c>
       <c r="O96" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         </is>
       </c>
       <c r="O97" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P97" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="O98" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         </is>
       </c>
       <c r="O99" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         </is>
       </c>
       <c r="O100" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         </is>
       </c>
       <c r="O101" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         </is>
       </c>
       <c r="O102" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P102" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="O103" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P103" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         </is>
       </c>
       <c r="O104" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P104" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         </is>
       </c>
       <c r="O105" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P105" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         </is>
       </c>
       <c r="O106" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P106" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         </is>
       </c>
       <c r="O107" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="O108" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P108" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         </is>
       </c>
       <c r="O109" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P109" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         </is>
       </c>
       <c r="O110" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P110" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         </is>
       </c>
       <c r="O111" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P111" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         </is>
       </c>
       <c r="O112" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P112" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="O113" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P113" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="O114" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P114" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="O115" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P115" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="O116" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P116" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="O117" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P117" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="O118" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P118" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="O119" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P119" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="O120" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P120" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="O121" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P121" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="O122" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P122" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="O123" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P123" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="O124" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P124" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="O125" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P125" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="O126" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P126" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="O127" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P127" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="O128" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P128" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="O129" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P129" t="inlineStr">
         <is>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="O130" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P130" t="inlineStr">
         <is>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="O131" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P131" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="O132" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P132" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="O133" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P133" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="O134" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P134" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="O135" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P135" t="inlineStr">
         <is>
@@ -11275,7 +11275,7 @@
         </is>
       </c>
       <c r="O136" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P136" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         </is>
       </c>
       <c r="O137" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P137" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         </is>
       </c>
       <c r="O138" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P138" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         </is>
       </c>
       <c r="O139" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P139" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         </is>
       </c>
       <c r="O140" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P140" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         </is>
       </c>
       <c r="O141" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P141" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         </is>
       </c>
       <c r="O142" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P142" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         </is>
       </c>
       <c r="O143" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P143" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         </is>
       </c>
       <c r="O144" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P144" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         </is>
       </c>
       <c r="O145" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P145" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         </is>
       </c>
       <c r="O146" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P146" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         </is>
       </c>
       <c r="O147" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P147" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         </is>
       </c>
       <c r="O148" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P148" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         </is>
       </c>
       <c r="O149" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P149" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         </is>
       </c>
       <c r="O150" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P150" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         </is>
       </c>
       <c r="O151" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P151" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         </is>
       </c>
       <c r="O152" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P152" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         </is>
       </c>
       <c r="O153" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P153" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         </is>
       </c>
       <c r="O154" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P154" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         </is>
       </c>
       <c r="O155" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P155" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         </is>
       </c>
       <c r="O156" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P156" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         </is>
       </c>
       <c r="O157" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P157" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         </is>
       </c>
       <c r="O158" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P158" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         </is>
       </c>
       <c r="O159" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P159" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         </is>
       </c>
       <c r="O160" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P160" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         </is>
       </c>
       <c r="O161" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P161" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         </is>
       </c>
       <c r="O162" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P162" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         </is>
       </c>
       <c r="O163" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P163" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         </is>
       </c>
       <c r="O164" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P164" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         </is>
       </c>
       <c r="O165" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P165" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         </is>
       </c>
       <c r="O166" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P166" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         </is>
       </c>
       <c r="O167" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P167" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         </is>
       </c>
       <c r="O168" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P168" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         </is>
       </c>
       <c r="O169" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P169" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         </is>
       </c>
       <c r="O170" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P170" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         </is>
       </c>
       <c r="O171" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P171" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         </is>
       </c>
       <c r="O172" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P172" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         </is>
       </c>
       <c r="O173" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P173" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         </is>
       </c>
       <c r="O174" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P174" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         </is>
       </c>
       <c r="O175" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P175" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         </is>
       </c>
       <c r="O176" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P176" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         </is>
       </c>
       <c r="O177" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P177" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         </is>
       </c>
       <c r="O178" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P178" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         </is>
       </c>
       <c r="O179" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P179" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         </is>
       </c>
       <c r="O180" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P180" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         </is>
       </c>
       <c r="O181" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P181" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         </is>
       </c>
       <c r="O182" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P182" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         </is>
       </c>
       <c r="O183" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P183" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         </is>
       </c>
       <c r="O184" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P184" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         </is>
       </c>
       <c r="O185" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P185" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         </is>
       </c>
       <c r="O186" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P186" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         </is>
       </c>
       <c r="O187" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P187" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         </is>
       </c>
       <c r="O188" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P188" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         </is>
       </c>
       <c r="O189" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P189" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         </is>
       </c>
       <c r="O190" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P190" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         </is>
       </c>
       <c r="O191" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P191" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         </is>
       </c>
       <c r="O192" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P192" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         </is>
       </c>
       <c r="O193" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P193" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         </is>
       </c>
       <c r="O194" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P194" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         </is>
       </c>
       <c r="O195" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P195" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         </is>
       </c>
       <c r="O196" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P196" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         </is>
       </c>
       <c r="O197" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P197" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         </is>
       </c>
       <c r="O198" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P198" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         </is>
       </c>
       <c r="O199" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P199" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         </is>
       </c>
       <c r="O200" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P200" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         </is>
       </c>
       <c r="O201" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P201" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         </is>
       </c>
       <c r="O202" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P202" t="inlineStr">
         <is>
@@ -16535,7 +16535,7 @@
         </is>
       </c>
       <c r="O203" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P203" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         </is>
       </c>
       <c r="O204" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P204" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         </is>
       </c>
       <c r="O205" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P205" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         </is>
       </c>
       <c r="O206" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P206" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         </is>
       </c>
       <c r="O207" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P207" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         </is>
       </c>
       <c r="O208" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P208" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         </is>
       </c>
       <c r="O209" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P209" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         </is>
       </c>
       <c r="O210" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P210" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         </is>
       </c>
       <c r="O211" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P211" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         </is>
       </c>
       <c r="O212" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P212" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         </is>
       </c>
       <c r="O213" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P213" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         </is>
       </c>
       <c r="O214" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P214" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         </is>
       </c>
       <c r="O215" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P215" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         </is>
       </c>
       <c r="O216" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P216" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         </is>
       </c>
       <c r="O217" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P217" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         </is>
       </c>
       <c r="O218" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P218" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         </is>
       </c>
       <c r="O219" s="2" t="n">
-        <v>45411.08255910521</v>
+        <v>45411.10023266722</v>
       </c>
       <c r="P219" t="inlineStr">
         <is>
